--- a/Workbook1.xlsx
+++ b/Workbook1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="13760" yWindow="480" windowWidth="23320" windowHeight="14680" tabRatio="500"/>
+    <workbookView xWindow="15440" yWindow="240" windowWidth="23320" windowHeight="14680" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,6 +16,35 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>MyMathLb HWAv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attendance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Final Exam</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YouTry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>All Test Average</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Best Test Average</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -382,92 +411,130 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
-  <dimension ref="B1:I6"/>
+  <dimension ref="A2:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
-    <col min="2" max="2" width="4.85546875" customWidth="1"/>
-    <col min="3" max="3" width="5.42578125" customWidth="1"/>
-    <col min="4" max="4" width="5.5703125" customWidth="1"/>
-    <col min="5" max="6" width="5" customWidth="1"/>
+    <col min="1" max="1" width="14.5703125" customWidth="1"/>
+    <col min="2" max="2" width="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.42578125" customWidth="1"/>
+    <col min="4" max="4" width="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.5703125" customWidth="1"/>
+    <col min="6" max="6" width="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9">
-      <c r="B1">
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
         <v>82</v>
       </c>
-      <c r="C1">
+      <c r="C2">
         <v>97</v>
       </c>
-      <c r="D1">
+      <c r="D2">
         <v>57</v>
       </c>
-      <c r="E1">
+      <c r="E2">
         <v>85</v>
       </c>
-      <c r="F1">
-        <v>80</v>
-      </c>
-      <c r="G1">
+      <c r="F2">
+        <v>66</v>
+      </c>
+      <c r="H2">
+        <f>SUM(B2:G2)/5</f>
+        <v>77.400000000000006</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>82</v>
+      </c>
+      <c r="C3">
+        <v>97</v>
+      </c>
+      <c r="E3">
+        <v>85</v>
+      </c>
+      <c r="F3">
+        <v>66</v>
+      </c>
+      <c r="G3">
         <v>12</v>
       </c>
-      <c r="H1">
-        <f>SUM(B1:G1)/5</f>
-        <v>82.6</v>
-      </c>
-      <c r="I1">
-        <f>H1*0.6</f>
-        <v>49.559999999999995</v>
-      </c>
-    </row>
-    <row r="2" spans="2:9">
-      <c r="H2">
+      <c r="H3">
+        <f>SUM(B3:G4)/4</f>
+        <v>85.5</v>
+      </c>
+      <c r="I3">
+        <f>H3*0.6</f>
+        <v>51.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4">
         <v>99.8</v>
       </c>
-      <c r="I2">
-        <f>H2*0.15</f>
+      <c r="I4">
+        <f>H4*0.15</f>
         <v>14.969999999999999</v>
       </c>
     </row>
-    <row r="3" spans="2:9">
-      <c r="H3">
-        <v>100</v>
-      </c>
-      <c r="I3">
-        <f>H3*0.02</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9">
-      <c r="H4">
-        <v>95</v>
-      </c>
-      <c r="I4">
-        <f>H4*0.03</f>
-        <v>2.85</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9">
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
       <c r="H5">
         <v>100</v>
       </c>
       <c r="I5">
-        <f>H5*0.2</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9">
+        <f>H5*0.02</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6">
+        <v>95</v>
+      </c>
       <c r="I6">
-        <f>SUM(I1:I5)</f>
-        <v>89.38</v>
+        <f>H6*0.03</f>
+        <v>2.85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7">
+        <v>95</v>
+      </c>
+      <c r="I7">
+        <f>H7*0.2</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="I8">
+        <f>SUM(I2:I7)</f>
+        <v>90.11999999999999</v>
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/Workbook1.xlsx
+++ b/Workbook1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="15440" yWindow="240" windowWidth="23320" windowHeight="14680" tabRatio="500"/>
+    <workbookView xWindow="8320" yWindow="1460" windowWidth="25880" windowHeight="16820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>MyMathLb HWAv</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -42,6 +42,14 @@
   </si>
   <si>
     <t>Best Test Average</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weighted</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Results</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -411,7 +419,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A2:I8"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
@@ -428,6 +436,14 @@
     <col min="7" max="7" width="4.28515625" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:9">
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+    </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>4</v>
@@ -447,10 +463,6 @@
       <c r="F2">
         <v>66</v>
       </c>
-      <c r="H2">
-        <f>SUM(B2:G2)/5</f>
-        <v>77.400000000000006</v>
-      </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
@@ -485,11 +497,11 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>99.8</v>
+        <v>99.96</v>
       </c>
       <c r="I4">
         <f>H4*0.15</f>
-        <v>14.969999999999999</v>
+        <v>14.993999999999998</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -509,11 +521,11 @@
         <v>3</v>
       </c>
       <c r="H6">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="I6">
         <f>H6*0.03</f>
-        <v>2.85</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -521,20 +533,21 @@
         <v>2</v>
       </c>
       <c r="H7">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <f>H7*0.2</f>
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="I8">
         <f>SUM(I2:I7)</f>
-        <v>90.11999999999999</v>
+        <v>70.543999999999997</v>
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
